--- a/guide/sdr-decedent-Birthplace-extension.xlsx
+++ b/guide/sdr-decedent-Birthplace-extension.xlsx
@@ -205,7 +205,7 @@
     <t>Extension.valueAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/sdr-decedent-Birthplace]]} {[]}
+    <t xml:space="preserve">Address {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/shr-core-PostalAddress]]} {[]}
 </t>
   </si>
   <si>
